--- a/adatbazis.xlsx
+++ b/adatbazis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SUSU\4. felev\php\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SUSU\4. felev\php\PHP_beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177DCFAD-0F32-45DB-8514-D74029D5727C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B35A2-F87B-4642-9CA1-756187ECBF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED9A507C-5D10-4DBC-AFB7-35B846753445}"/>
   </bookViews>
@@ -250,27 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,6 +264,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1764,31 +1764,31 @@
   <dimension ref="I1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="10"/>
       <c r="N4" t="s">
         <v>18</v>
       </c>
@@ -1837,32 +1837,32 @@
       <c r="N9" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="5"/>
       <c r="N10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="10"/>
       <c r="N15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1913,33 +1913,33 @@
       </c>
     </row>
     <row r="21" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="12"/>
       <c r="N21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="5"/>
       <c r="N22" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="13"/>
+      <c r="P22" s="6"/>
     </row>
     <row r="23" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I25" s="2" t="s">
@@ -1949,22 +1949,31 @@
       <c r="N25" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="13"/>
+      <c r="P25" s="6"/>
     </row>
     <row r="26" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="5"/>
       <c r="N26" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="O25:P25"/>
@@ -1980,15 +1989,6 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/adatbazis.xlsx
+++ b/adatbazis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SUSU\4. felev\php\PHP_beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B35A2-F87B-4642-9CA1-756187ECBF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1486ED52-D41D-48E2-914B-D10EE9009CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED9A507C-5D10-4DBC-AFB7-35B846753445}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>PHP adatbázis modell</t>
   </si>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -249,6 +249,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,32 +274,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1761,34 +1755,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59D21CA-889B-4233-9107-04EF9D82C1D8}">
-  <dimension ref="I1:P26"/>
+  <dimension ref="I1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="5"/>
       <c r="N4" t="s">
         <v>18</v>
       </c>
@@ -1837,32 +1831,32 @@
       <c r="N9" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="10"/>
       <c r="N10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="5"/>
       <c r="N15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1913,67 +1907,65 @@
       </c>
     </row>
     <row r="21" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="13"/>
       <c r="N21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J22" s="10"/>
       <c r="N22" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="5"/>
       <c r="N25" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="4" t="s">
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="J26" s="3"/>
       <c r="N26" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="27" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I9:J9"/>
+  <mergeCells count="25">
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="O25:P25"/>
@@ -1989,6 +1981,15 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
